--- a/bean-mapper-test/docs/jdk11-03/PerformanceTestWithCompleteFixtures.xlsx
+++ b/bean-mapper-test/docs/jdk11-03/PerformanceTestWithCompleteFixtures.xlsx
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
-  <si>
-    <t>03.01.2022 um 16:31 Uhr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+  <si>
+    <t>06.01.2022 um 17:59 Uhr</t>
   </si>
   <si>
     <t>Name des Messpunkts</t>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>JMapper</t>
+  </si>
+  <si>
+    <t>Selma</t>
   </si>
   <si>
     <t>reMap</t>
@@ -119,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -167,7 +170,7 @@
         <v>10.0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -176,10 +179,10 @@
         <v>2.0</v>
       </c>
       <c r="F3" t="n" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G3" t="n" s="2">
-        <v>0.632456</v>
+        <v>0.674949</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -193,7 +196,7 @@
         <v>10.0</v>
       </c>
       <c r="C4" t="n">
-        <v>193.0</v>
+        <v>202.0</v>
       </c>
       <c r="D4" t="n">
         <v>6.0</v>
@@ -202,10 +205,10 @@
         <v>95.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>19.3</v>
+        <v>20.2</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>27.3335</v>
+        <v>27.0752</v>
       </c>
       <c r="H4" t="n">
         <v>6.0</v>
@@ -219,22 +222,22 @@
         <v>10.0</v>
       </c>
       <c r="C5" t="n">
-        <v>64.0</v>
+        <v>59.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>55.0</v>
+        <v>47.0</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>17.0893</v>
+        <v>14.4718</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -251,13 +254,13 @@
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" t="n" s="2">
         <v>0.2</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.632456</v>
+        <v>0.421637</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -271,22 +274,22 @@
         <v>10.0</v>
       </c>
       <c r="C7" t="n">
-        <v>289.0</v>
+        <v>269.0</v>
       </c>
       <c r="D7" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="E7" t="n">
-        <v>91.0</v>
+        <v>86.0</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>28.9</v>
+        <v>26.9</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>21.8655</v>
+        <v>20.8883</v>
       </c>
       <c r="H7" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
@@ -323,22 +326,48 @@
         <v>10.0</v>
       </c>
       <c r="C9" t="n">
-        <v>74.0</v>
+        <v>16.0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F9" t="n" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G9" t="n" s="2">
+        <v>1.3499</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E10" t="n">
         <v>21.0</v>
       </c>
-      <c r="F9" t="n" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="G9" t="n" s="2">
-        <v>5.14674</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.0</v>
+      <c r="F10" t="n" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="G10" t="n" s="2">
+        <v>5.3375</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -348,7 +377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" state="frozen" topLeftCell="B1" activePane="topRight"/>
@@ -393,22 +422,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>40384.0</v>
+        <v>39780.0</v>
       </c>
       <c r="C3" t="n">
-        <v>504.0</v>
+        <v>539.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="F3" t="n" s="2">
-        <v>0.0124802</v>
+        <v>0.0135495</v>
       </c>
       <c r="G3" t="n" s="2">
-        <v>0.111017</v>
+        <v>0.120092</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -419,25 +448,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>40384.0</v>
+        <v>39780.0</v>
       </c>
       <c r="C4" t="n">
-        <v>174946.0</v>
+        <v>172346.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>4.33206</v>
+        <v>4.33248</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>0.483567</v>
+        <v>0.495147</v>
       </c>
       <c r="H4" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -445,22 +474,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>40384.0</v>
+        <v>39780.0</v>
       </c>
       <c r="C5" t="n">
-        <v>11506.0</v>
+        <v>11510.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>0.284915</v>
+        <v>0.289341</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>0.455801</v>
+        <v>0.456116</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -471,22 +500,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>40384.0</v>
+        <v>39780.0</v>
       </c>
       <c r="C6" t="n">
-        <v>544.0</v>
+        <v>573.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.0134707</v>
+        <v>0.0144042</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.11528</v>
+        <v>0.119362</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -497,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>40384.0</v>
+        <v>39780.0</v>
       </c>
       <c r="C7" t="n">
-        <v>271413.0</v>
+        <v>262328.0</v>
       </c>
       <c r="D7" t="n">
         <v>6.0</v>
@@ -509,10 +538,10 @@
         <v>18.0</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>6.72081</v>
+        <v>6.59447</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>0.529334</v>
+        <v>0.562716</v>
       </c>
       <c r="H7" t="n">
         <v>7.0</v>
@@ -523,22 +552,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>40384.0</v>
+        <v>39780.0</v>
       </c>
       <c r="C8" t="n">
-        <v>323.0</v>
+        <v>262.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.00799822</v>
+        <v>0.00658622</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.102033</v>
+        <v>0.0808889</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -549,233 +578,258 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>40384.0</v>
+        <v>39780.0</v>
       </c>
       <c r="C9" t="n">
-        <v>130857.0</v>
+        <v>15711.0</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F9" t="n" s="2">
+        <v>0.394947</v>
+      </c>
+      <c r="G9" t="n" s="2">
+        <v>0.493859</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>39780.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>124867.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F10" t="n" s="2">
+        <v>3.13894</v>
+      </c>
+      <c r="G10" t="n" s="2">
+        <v>0.381683</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.0</v>
       </c>
-      <c r="E9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F9" t="n" s="2">
-        <v>3.24032</v>
-      </c>
-      <c r="G9" t="n" s="2">
-        <v>0.459399</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="B12" t="n" s="1">
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n" s="1">
         <v>10.0</v>
       </c>
-      <c r="C12" t="n" s="1">
+      <c r="C13" t="n" s="1">
         <v>100.0</v>
       </c>
-      <c r="D12" t="n" s="1">
+      <c r="D13" t="n" s="1">
         <v>1000.0</v>
       </c>
-      <c r="E12" t="n" s="1">
+      <c r="E13" t="n" s="1">
         <v>10000.0</v>
       </c>
-      <c r="F12" t="n" s="1">
+      <c r="F13" t="n" s="1">
         <v>20000.0</v>
       </c>
-      <c r="G12" t="n" s="1">
+      <c r="G13" t="n" s="1">
         <v>30000.0</v>
-      </c>
-      <c r="H12" t="n" s="1">
-        <v>40000.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C13" t="n" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="D13" t="n" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="E13" t="n" s="2">
-        <v>0.0131</v>
-      </c>
-      <c r="F13" t="n" s="2">
-        <v>0.01325</v>
-      </c>
-      <c r="G13" t="n" s="2">
-        <v>0.0126333</v>
-      </c>
-      <c r="H13" t="n" s="2">
-        <v>0.0125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="n" s="2">
-        <v>6.1</v>
+        <v>0.0</v>
       </c>
       <c r="C14" t="n" s="2">
-        <v>5.13</v>
+        <v>0.05</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>4.193</v>
+        <v>0.018</v>
       </c>
       <c r="E14" t="n" s="2">
-        <v>4.3182</v>
+        <v>0.0138</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>4.326</v>
+        <v>0.01315</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>4.32983</v>
-      </c>
-      <c r="H14" t="n" s="2">
-        <v>4.33193</v>
+        <v>0.0142333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="n" s="2">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="C15" t="n" s="2">
-        <v>0.43</v>
+        <v>5.55</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>0.274</v>
+        <v>4.504</v>
       </c>
       <c r="E15" t="n" s="2">
-        <v>0.286</v>
+        <v>4.352</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>0.285</v>
+        <v>4.31005</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>0.283833</v>
-      </c>
-      <c r="H15" t="n" s="2">
-        <v>0.285</v>
+        <v>4.32463</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="n" s="2">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="C16" t="n" s="2">
-        <v>0.09</v>
+        <v>0.31</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>0.028</v>
+        <v>0.282</v>
       </c>
       <c r="E16" t="n" s="2">
-        <v>0.0174</v>
+        <v>0.2893</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>0.0143</v>
+        <v>0.28945</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>0.0134</v>
-      </c>
-      <c r="H16" t="n" s="2">
-        <v>0.013475</v>
+        <v>0.288167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="n" s="2">
-        <v>10.5</v>
+        <v>0.0</v>
       </c>
       <c r="C17" t="n" s="2">
-        <v>8.11</v>
+        <v>0.07</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>6.666</v>
+        <v>0.029</v>
       </c>
       <c r="E17" t="n" s="2">
-        <v>6.7235</v>
+        <v>0.0167</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>6.7045</v>
+        <v>0.0151</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>6.70687</v>
-      </c>
-      <c r="H17" t="n" s="2">
-        <v>6.72005</v>
+        <v>0.0145333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="n" s="2">
-        <v>0.5</v>
+        <v>10.5</v>
       </c>
       <c r="C18" t="n" s="2">
-        <v>0.27</v>
+        <v>8.03</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>0.044</v>
+        <v>6.798</v>
       </c>
       <c r="E18" t="n" s="2">
-        <v>0.01</v>
+        <v>6.607</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>0.0085</v>
+        <v>6.55815</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>0.00816667</v>
-      </c>
-      <c r="H18" t="n" s="2">
-        <v>0.008025</v>
+        <v>6.58487</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="n" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C19" t="n" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="D19" t="n" s="2">
+        <v>0.038</v>
+      </c>
+      <c r="E19" t="n" s="2">
+        <v>0.0095</v>
+      </c>
+      <c r="F19" t="n" s="2">
+        <v>0.00765</v>
+      </c>
+      <c r="G19" t="n" s="2">
+        <v>0.00713333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="n" s="2">
-        <v>4.4</v>
-      </c>
-      <c r="C19" t="n" s="2">
-        <v>4.06</v>
-      </c>
-      <c r="D19" t="n" s="2">
-        <v>3.227</v>
-      </c>
-      <c r="E19" t="n" s="2">
-        <v>3.2353</v>
-      </c>
-      <c r="F19" t="n" s="2">
-        <v>3.23385</v>
-      </c>
-      <c r="G19" t="n" s="2">
-        <v>3.23577</v>
-      </c>
-      <c r="H19" t="n" s="2">
-        <v>3.24</v>
+      <c r="B20" t="n" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C20" t="n" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D20" t="n" s="2">
+        <v>0.412</v>
+      </c>
+      <c r="E20" t="n" s="2">
+        <v>0.3963</v>
+      </c>
+      <c r="F20" t="n" s="2">
+        <v>0.3946</v>
+      </c>
+      <c r="G20" t="n" s="2">
+        <v>0.3942</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="n" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="C21" t="n" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="D21" t="n" s="2">
+        <v>3.269</v>
+      </c>
+      <c r="E21" t="n" s="2">
+        <v>3.157</v>
+      </c>
+      <c r="F21" t="n" s="2">
+        <v>3.1259</v>
+      </c>
+      <c r="G21" t="n" s="2">
+        <v>3.1344</v>
       </c>
     </row>
   </sheetData>
